--- a/submission time.xlsx
+++ b/submission time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/102986654ea44234/Desktop/carro/redfin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF76925-B1EF-498C-9553-1D1A6F3CA1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{DCF76925-B1EF-498C-9553-1D1A6F3CA1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89A84173-4799-42DC-8897-CAD1E86860C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49580EA8-A9FC-42BF-89B8-518DA4F83ABB}"/>
+    <workbookView xWindow="-28920" yWindow="-2565" windowWidth="29040" windowHeight="15720" xr2:uid="{49580EA8-A9FC-42BF-89B8-518DA4F83ABB}"/>
   </bookViews>
   <sheets>
     <sheet name="submission time" sheetId="1" r:id="rId1"/>
@@ -1492,9 +1492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B38F2B9-E059-4DC6-A7AB-BC343704FFE4}">
   <dimension ref="A1:Z628"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,6 +1502,9 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="20.140625" customWidth="1"/>
